--- a/ДК.xlsx
+++ b/ДК.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27605"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD9F882-A188-48FB-B91A-4A3C29B18F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5BF66CD-9496-4A60-8A63-55CE8F89701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Дата</t>
   </si>
@@ -51,28 +51,40 @@
     <t>НЕ НУЖНО</t>
   </si>
   <si>
-    <t xml:space="preserve">Все участники </t>
+    <t>Никита</t>
   </si>
   <si>
     <t>Страница с рулеткой</t>
   </si>
   <si>
+    <t xml:space="preserve">Страница с интуицией </t>
+  </si>
+  <si>
+    <t>Тимур</t>
+  </si>
+  <si>
+    <t>Страница вывода</t>
+  </si>
+  <si>
+    <t>Аня</t>
+  </si>
+  <si>
+    <t>Страница депа</t>
+  </si>
+  <si>
+    <t>Обработка денег</t>
+  </si>
+  <si>
+    <t>Бот</t>
+  </si>
+  <si>
+    <t>Все готово</t>
+  </si>
+  <si>
     <t>Все участники</t>
   </si>
   <si>
-    <t xml:space="preserve">Страница с интуицией </t>
-  </si>
-  <si>
-    <t>Открываем счет в банке (ДЕМО)</t>
-  </si>
-  <si>
-    <t>Обработка денег</t>
-  </si>
-  <si>
-    <t>Резерв</t>
-  </si>
-  <si>
-    <t>Все готово</t>
+    <t>Защита</t>
   </si>
 </sst>
 </file>
@@ -153,10 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,7 +520,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,150 +532,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>45386</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.5">
-      <c r="A3" s="7">
-        <v>45389</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6">
+        <v>45392</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.5">
+      <c r="A4" s="6">
+        <v>45395</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.5">
-      <c r="A4" s="7">
-        <v>45390</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="34.5">
-      <c r="A5" s="7">
-        <v>45393</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6">
+        <v>45398</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.5">
-      <c r="A6" s="7">
-        <v>45396</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6">
+        <v>45400</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="34.5">
-      <c r="A7" s="7">
-        <v>45397</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
+      <c r="A7" s="6">
+        <v>45402</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.5">
-      <c r="A8" s="7">
-        <v>45400</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
+      <c r="A8" s="6">
+        <v>45403</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.5">
-      <c r="A9" s="7">
-        <v>45403</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
+      <c r="A9" s="6">
+        <v>45404</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.5">
-      <c r="A10" s="7">
-        <v>45404</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" s="2"/>
+      <c r="A10" s="6">
+        <v>45407</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="1"/>
